--- a/Parababnk/Reports/TestData.xlsx
+++ b/Parababnk/Reports/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96630494-3810-426D-A9AA-03D15DD5E50E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E3F0A9-6E0B-4B0F-AC95-F5731D3477AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>USERNAME</t>
   </si>
@@ -28,7 +28,37 @@
     <t>AL202107</t>
   </si>
   <si>
-    <t>Devil@1234</t>
+    <t>Row2</t>
+  </si>
+  <si>
+    <t>Row3</t>
+  </si>
+  <si>
+    <t>Row4</t>
+  </si>
+  <si>
+    <t>Row5</t>
+  </si>
+  <si>
+    <t>Row6</t>
+  </si>
+  <si>
+    <t>pass4</t>
+  </si>
+  <si>
+    <t>pass5</t>
+  </si>
+  <si>
+    <t>pass6</t>
+  </si>
+  <si>
+    <t>pass1</t>
+  </si>
+  <si>
+    <t>pass2</t>
+  </si>
+  <si>
+    <t>pass3</t>
   </si>
 </sst>
 </file>
@@ -436,7 +466,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,41 +489,53 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -507,13 +549,8 @@
       <c r="C9" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{94224EDB-4DD7-45A1-B9D1-E313E4894835}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{80387BAA-D67B-4A3B-A1D2-C8D62F063114}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Parababnk/Reports/TestData.xlsx
+++ b/Parababnk/Reports/TestData.xlsx
@@ -23,10 +23,10 @@
     <t>Result</t>
   </si>
   <si>
-    <t>AE20205</t>
+    <t>AA20201</t>
   </si>
   <si>
-    <t>Devil_1235</t>
+    <t>Devil_1231</t>
   </si>
   <si>
     <t>Invalid Credentials</t>
